--- a/biology/Médecine/Syndrome_de_l'incisive_centrale_maxillaire_médiane_unique/Syndrome_de_l'incisive_centrale_maxillaire_médiane_unique.xlsx
+++ b/biology/Médecine/Syndrome_de_l'incisive_centrale_maxillaire_médiane_unique/Syndrome_de_l'incisive_centrale_maxillaire_médiane_unique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_l%27incisive_centrale_maxillaire_m%C3%A9diane_unique</t>
+          <t>Syndrome_de_l'incisive_centrale_maxillaire_médiane_unique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de l'incisive centrale maxillaire médiane unique est un syndrome malformatif complexe affectant le développement embryonnaire et débutant entre le 36e jour et le 38e jour de la conception. Il se traduit essentiellement par des anomalies de la ligne médiane.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_l%27incisive_centrale_maxillaire_m%C3%A9diane_unique</t>
+          <t>Syndrome_de_l'incisive_centrale_maxillaire_médiane_unique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Roger K Hall, Solitary median maxillary central incisor (SMMCI) syndrome in Orphanet Journal of Rare Diseases 2006, 1:12 (9 April 2006) [1] doi:10.1186/1750-1172-1-12
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Roger K Hall, Solitary median maxillary central incisor (SMMCI) syndrome in Orphanet Journal of Rare Diseases 2006, 1:12 (9 April 2006)  doi:10.1186/1750-1172-1-12
  Portail de la médecine                     </t>
         </is>
       </c>
